--- a/Peaks-dataset-article/redes-ensemble/Teste04/content/results/metrics_6_8.xlsx
+++ b/Peaks-dataset-article/redes-ensemble/Teste04/content/results/metrics_6_8.xlsx
@@ -522,52 +522,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9803586242662702</v>
+        <v>0.9919316666615999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7860283650588569</v>
+        <v>0.8212412476664122</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6893198679187449</v>
+        <v>0.9619062314837262</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7014394679564058</v>
+        <v>0.9999770908378367</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8555978662568395</v>
+        <v>0.9958422753898302</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1313419699716708</v>
+        <v>0.0539529821851405</v>
       </c>
       <c r="H2" t="n">
-        <v>1.430829308100209</v>
+        <v>1.195360599963071</v>
       </c>
       <c r="I2" t="n">
-        <v>0.248264684593794</v>
+        <v>0.0693891231210591</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5726226141333257</v>
+        <v>0.0003279865567835442</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4104436511707476</v>
+        <v>0.03485863572825808</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2172348165881846</v>
+        <v>0.4539729195024458</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3624113270465906</v>
+        <v>0.2322778125115279</v>
       </c>
       <c r="N2" t="n">
-        <v>1.003895810062889</v>
+        <v>1.009220952386743</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3778399275338336</v>
+        <v>0.2421663598715015</v>
       </c>
       <c r="P2" t="n">
-        <v>294.0599017986177</v>
+        <v>95.8392846239454</v>
       </c>
       <c r="Q2" t="n">
-        <v>470.7968964045068</v>
+        <v>150.6886967430144</v>
       </c>
     </row>
     <row r="3">
@@ -577,602 +577,602 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9803586701380143</v>
+        <v>0.9923374277841099</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7860283325035586</v>
+        <v>0.8212162900185728</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6893205027229392</v>
+        <v>0.9570734334901937</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7014401848513178</v>
+        <v>0.9999610037192166</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8555981983781539</v>
+        <v>0.9953035568048005</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1313416632271066</v>
+        <v>0.05123965569055758</v>
       </c>
       <c r="H3" t="n">
-        <v>1.430829525797638</v>
+        <v>1.195527491869093</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2482641773213719</v>
+        <v>0.07819223260730415</v>
       </c>
       <c r="J3" t="n">
-        <v>0.572621239168471</v>
+        <v>0.0005583030828594108</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4104427071605635</v>
+        <v>0.03937528766563181</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2172349639529275</v>
+        <v>0.4480954529605415</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3624109038468719</v>
+        <v>0.2263617805429123</v>
       </c>
       <c r="N3" t="n">
-        <v>1.003895800964361</v>
+        <v>1.008757225389589</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3778394863176267</v>
+        <v>0.2359984701741075</v>
       </c>
       <c r="P3" t="n">
-        <v>294.059906469553</v>
+        <v>95.94248304304067</v>
       </c>
       <c r="Q3" t="n">
-        <v>470.7969010754421</v>
+        <v>150.7918951621097</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_22</t>
+          <t>model_6_8_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9803586802489048</v>
+        <v>0.9926616408176466</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7860282298129475</v>
+        <v>0.8211277328824307</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6893214112824252</v>
+        <v>0.9519464564595055</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7014400307961955</v>
+        <v>0.9999206330446214</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8555982731007237</v>
+        <v>0.9947121460219309</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1313415956155349</v>
+        <v>0.04907164164243404</v>
       </c>
       <c r="H4" t="n">
-        <v>1.430830212490227</v>
+        <v>1.196119673846243</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2482634512909279</v>
+        <v>0.08753119943252888</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5726215346376886</v>
+        <v>0.001136283126874591</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4104424947717048</v>
+        <v>0.04433371444440139</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2172353504365722</v>
+        <v>0.4479303752226095</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3624108105665929</v>
+        <v>0.2215211990813386</v>
       </c>
       <c r="N4" t="n">
-        <v>1.003895798958895</v>
+        <v>1.008386696208404</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3778393890662132</v>
+        <v>0.2309518151383296</v>
       </c>
       <c r="P4" t="n">
-        <v>294.0599074991059</v>
+        <v>96.02894794865227</v>
       </c>
       <c r="Q4" t="n">
-        <v>470.796902104995</v>
+        <v>150.8783600677213</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_21</t>
+          <t>model_6_8_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9803586802489048</v>
+        <v>0.9929121867842498</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7860282298129475</v>
+        <v>0.82098262046538</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6893214112824252</v>
+        <v>0.9465544771402785</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7014400307961955</v>
+        <v>0.9998580544418416</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8555982731007237</v>
+        <v>0.994072984367389</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1313415956155349</v>
+        <v>0.04739623961010112</v>
       </c>
       <c r="H5" t="n">
-        <v>1.430830212490227</v>
+        <v>1.197090041247243</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2482634512909279</v>
+        <v>0.09735287713522725</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5726215346376886</v>
+        <v>0.002032210280723564</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4104424947717048</v>
+        <v>0.04969248766200476</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2172353504365722</v>
+        <v>0.4512111463780415</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3624108105665929</v>
+        <v>0.2177067743780637</v>
       </c>
       <c r="N5" t="n">
-        <v>1.003895798958895</v>
+        <v>1.008100357960857</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3778393890662132</v>
+        <v>0.2269750024784886</v>
       </c>
       <c r="P5" t="n">
-        <v>294.0599074991059</v>
+        <v>96.09842477309675</v>
       </c>
       <c r="Q5" t="n">
-        <v>470.796902104995</v>
+        <v>150.9478368921658</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_20</t>
+          <t>model_6_8_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9803586802489048</v>
+        <v>0.9930963056013424</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7860282298129475</v>
+        <v>0.8207874345598519</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6893214112824252</v>
+        <v>0.9409270789586242</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7014400307961955</v>
+        <v>0.9997752349695092</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8555982731007237</v>
+        <v>0.9933909558386294</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1313415956155349</v>
+        <v>0.04616503623241305</v>
       </c>
       <c r="H6" t="n">
-        <v>1.430830212490227</v>
+        <v>1.198395250296257</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2482634512909279</v>
+        <v>0.1076033784767058</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5726215346376886</v>
+        <v>0.003217922502379212</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4104424947717048</v>
+        <v>0.05541065956356743</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2172353504365722</v>
+        <v>0.4547313316771572</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3624108105665929</v>
+        <v>0.2148605041239852</v>
       </c>
       <c r="N6" t="n">
-        <v>1.003895798958895</v>
+        <v>1.007889936455609</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3778393890662132</v>
+        <v>0.2240075606071023</v>
       </c>
       <c r="P6" t="n">
-        <v>294.0599074991059</v>
+        <v>96.15106511782382</v>
       </c>
       <c r="Q6" t="n">
-        <v>470.796902104995</v>
+        <v>151.0004772368928</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_19</t>
+          <t>model_6_8_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9803586802489048</v>
+        <v>0.9932207257894609</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7860282298129475</v>
+        <v>0.8205483182490464</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6893214112824252</v>
+        <v>0.9350940422344204</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7014400307961955</v>
+        <v>0.9996740140165595</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8555982731007237</v>
+        <v>0.9926708847667599</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1313415956155349</v>
+        <v>0.04533303786156301</v>
       </c>
       <c r="H7" t="n">
-        <v>1.430830212490227</v>
+        <v>1.199994222167643</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2482634512909279</v>
+        <v>0.1182284575694326</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5726215346376886</v>
+        <v>0.00466708557502165</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4104424947717048</v>
+        <v>0.06144778264078091</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2172353504365722</v>
+        <v>0.4584330987265134</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3624108105665929</v>
+        <v>0.2129155650993206</v>
       </c>
       <c r="N7" t="n">
-        <v>1.003895798958895</v>
+        <v>1.007747741954902</v>
       </c>
       <c r="O7" t="n">
-        <v>0.3778393890662132</v>
+        <v>0.2219798215015789</v>
       </c>
       <c r="P7" t="n">
-        <v>294.0599074991059</v>
+        <v>96.18743839939015</v>
       </c>
       <c r="Q7" t="n">
-        <v>470.796902104995</v>
+        <v>151.0368505184592</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_18</t>
+          <t>model_6_8_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9803586802489048</v>
+        <v>0.9932916058948574</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7860282298129475</v>
+        <v>0.8202707563799749</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6893214112824252</v>
+        <v>0.9290841214543742</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7014400307961955</v>
+        <v>0.99955617849179</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8555982731007237</v>
+        <v>0.991917410082643</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1313415956155349</v>
+        <v>0.04485906227040314</v>
       </c>
       <c r="H8" t="n">
-        <v>1.430830212490227</v>
+        <v>1.201850279664179</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2482634512909279</v>
+        <v>0.1291757371166447</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5726215346376886</v>
+        <v>0.006354116630998751</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4104424947717048</v>
+        <v>0.06776496379314778</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2172353504365722</v>
+        <v>0.4622620484503344</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3624108105665929</v>
+        <v>0.2117995804301867</v>
       </c>
       <c r="N8" t="n">
-        <v>1.003895798958895</v>
+        <v>1.007666736120163</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3778393890662132</v>
+        <v>0.2208163270546733</v>
       </c>
       <c r="P8" t="n">
-        <v>294.0599074991059</v>
+        <v>96.20845930715411</v>
       </c>
       <c r="Q8" t="n">
-        <v>470.796902104995</v>
+        <v>151.0578714262231</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_17</t>
+          <t>model_6_8_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9803586802489048</v>
+        <v>0.9933147039647121</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7860282298129475</v>
+        <v>0.8199600203532478</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6893214112824252</v>
+        <v>0.922926627024874</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7014400307961955</v>
+        <v>0.9994234479932583</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8555982731007237</v>
+        <v>0.9911352033827573</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1313415956155349</v>
+        <v>0.04470460537092816</v>
       </c>
       <c r="H9" t="n">
-        <v>1.430830212490227</v>
+        <v>1.203928172905711</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2482634512909279</v>
+        <v>0.1403918271945612</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5726215346376886</v>
+        <v>0.008254396478999089</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4104424947717048</v>
+        <v>0.07432303604950259</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2172353504365722</v>
+        <v>0.4661826680557724</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3624108105665929</v>
+        <v>0.2114346361666606</v>
       </c>
       <c r="N9" t="n">
-        <v>1.003895798958895</v>
+        <v>1.007640338326043</v>
       </c>
       <c r="O9" t="n">
-        <v>0.3778393890662132</v>
+        <v>0.2204358463583102</v>
       </c>
       <c r="P9" t="n">
-        <v>294.0599074991059</v>
+        <v>96.21535750847457</v>
       </c>
       <c r="Q9" t="n">
-        <v>470.796902104995</v>
+        <v>151.0647696275436</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_16</t>
+          <t>model_6_8_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9803586802489048</v>
+        <v>0.9932953248930388</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7860282298129475</v>
+        <v>0.8196208031707762</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6893214112824252</v>
+        <v>0.9166494736750912</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7014400307961955</v>
+        <v>0.9992774415913662</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8555982731007237</v>
+        <v>0.9903286413753908</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1313415956155349</v>
+        <v>0.04483419331243957</v>
       </c>
       <c r="H10" t="n">
-        <v>1.430830212490227</v>
+        <v>1.20619651976685</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2482634512909279</v>
+        <v>0.151825880153952</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5726215346376886</v>
+        <v>0.01034474516497571</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4104424947717048</v>
+        <v>0.08108530480060472</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2172353504365722</v>
+        <v>0.4701434919368204</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3624108105665929</v>
+        <v>0.2117408635866954</v>
       </c>
       <c r="N10" t="n">
-        <v>1.003895798958895</v>
+        <v>1.007662485836527</v>
       </c>
       <c r="O10" t="n">
-        <v>0.3778393890662132</v>
+        <v>0.220755110513594</v>
       </c>
       <c r="P10" t="n">
-        <v>294.0599074991059</v>
+        <v>96.20956837420444</v>
       </c>
       <c r="Q10" t="n">
-        <v>470.796902104995</v>
+        <v>151.0589804932735</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_15</t>
+          <t>model_6_8_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9803586802489048</v>
+        <v>0.9932383353539177</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7860282298129475</v>
+        <v>0.8192575035676161</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6893214112824252</v>
+        <v>0.9102792674368161</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7014400307961955</v>
+        <v>0.9991197352830112</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8555982731007237</v>
+        <v>0.9895019737029813</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1313415956155349</v>
+        <v>0.04521528262295511</v>
       </c>
       <c r="H11" t="n">
-        <v>1.430830212490227</v>
+        <v>1.208625905886023</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2482634512909279</v>
+        <v>0.1634294321833445</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5726215346376886</v>
+        <v>0.01260259941087147</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4104424947717048</v>
+        <v>0.08801614076563276</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2172353504365722</v>
+        <v>0.4741179244601231</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3624108105665929</v>
+        <v>0.2126388549229776</v>
       </c>
       <c r="N11" t="n">
-        <v>1.003895798958895</v>
+        <v>1.00772761673838</v>
       </c>
       <c r="O11" t="n">
-        <v>0.3778393890662132</v>
+        <v>0.22169133120016</v>
       </c>
       <c r="P11" t="n">
-        <v>294.0599074991059</v>
+        <v>96.19264027632663</v>
       </c>
       <c r="Q11" t="n">
-        <v>470.796902104995</v>
+        <v>151.0420523953956</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_14</t>
+          <t>model_6_8_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9803586802489048</v>
+        <v>0.9931482628283397</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7860282298129475</v>
+        <v>0.8188741969774899</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6893214112824252</v>
+        <v>0.9038423735532846</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7014400307961955</v>
+        <v>0.9989518155046399</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8555982731007237</v>
+        <v>0.9886593901184266</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1313415956155349</v>
+        <v>0.04581759801624102</v>
       </c>
       <c r="H12" t="n">
-        <v>1.430830212490227</v>
+        <v>1.211189078819161</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2482634512909279</v>
+        <v>0.1751544580759847</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5726215346376886</v>
+        <v>0.01500667816029128</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4104424947717048</v>
+        <v>0.09508041678159607</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2172353504365722</v>
+        <v>0.4780807535717926</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3624108105665929</v>
+        <v>0.2140504567064528</v>
       </c>
       <c r="N12" t="n">
-        <v>1.003895798958895</v>
+        <v>1.007830556767612</v>
       </c>
       <c r="O12" t="n">
-        <v>0.3778393890662132</v>
+        <v>0.2231630277939763</v>
       </c>
       <c r="P12" t="n">
-        <v>294.0599074991059</v>
+        <v>96.16617405099868</v>
       </c>
       <c r="Q12" t="n">
-        <v>470.796902104995</v>
+        <v>151.0155861700677</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_13</t>
+          <t>model_6_8_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9803586802489048</v>
+        <v>0.9930292364909832</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7860282298129475</v>
+        <v>0.818474510290637</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6893214112824252</v>
+        <v>0.8973636089827121</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7014400307961955</v>
+        <v>0.9987751007509645</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8555982731007237</v>
+        <v>0.9878046842587069</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1313415956155349</v>
+        <v>0.04661352768221003</v>
       </c>
       <c r="H13" t="n">
-        <v>1.430830212490227</v>
+        <v>1.213861785534534</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2482634512909279</v>
+        <v>0.186955752880088</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5726215346376886</v>
+        <v>0.01753667306702702</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4104424947717048</v>
+        <v>0.1022463267473263</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2172353504365722</v>
+        <v>0.4820014036331588</v>
       </c>
       <c r="M13" t="n">
-        <v>0.3624108105665929</v>
+        <v>0.2159016620644918</v>
       </c>
       <c r="N13" t="n">
-        <v>1.003895798958895</v>
+        <v>1.007966586867448</v>
       </c>
       <c r="O13" t="n">
-        <v>0.3778393890662132</v>
+        <v>0.2250930427966304</v>
       </c>
       <c r="P13" t="n">
-        <v>294.0599074991059</v>
+        <v>96.13172897273583</v>
       </c>
       <c r="Q13" t="n">
-        <v>470.796902104995</v>
+        <v>150.9811410918049</v>
       </c>
     </row>
     <row r="14">
@@ -1182,602 +1182,602 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9803586802489048</v>
+        <v>0.9928851270029988</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7860282298129475</v>
+        <v>0.8180618421843514</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6893214112824252</v>
+        <v>0.8908659157812717</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7014400307961955</v>
+        <v>0.9985909654553857</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8555982731007237</v>
+        <v>0.9869416329598952</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1313415956155349</v>
+        <v>0.04757718849192469</v>
       </c>
       <c r="H14" t="n">
-        <v>1.430830212490227</v>
+        <v>1.216621299061428</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2482634512909279</v>
+        <v>0.198791526843092</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5726215346376886</v>
+        <v>0.02017290660313865</v>
       </c>
       <c r="K14" t="n">
-        <v>0.4104424947717048</v>
+        <v>0.1094822054215621</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2172353504365722</v>
+        <v>0.4858627267103327</v>
       </c>
       <c r="M14" t="n">
-        <v>0.3624108105665929</v>
+        <v>0.2181219578399311</v>
       </c>
       <c r="N14" t="n">
-        <v>1.003895798958895</v>
+        <v>1.008131283425144</v>
       </c>
       <c r="O14" t="n">
-        <v>0.3778393890662132</v>
+        <v>0.227407861159876</v>
       </c>
       <c r="P14" t="n">
-        <v>294.0599074991059</v>
+        <v>96.0908037319534</v>
       </c>
       <c r="Q14" t="n">
-        <v>470.796902104995</v>
+        <v>150.9402158510224</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_11</t>
+          <t>model_6_8_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9803586802489048</v>
+        <v>0.9927193925052052</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7860282298129475</v>
+        <v>0.8176392272023275</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6893214112824252</v>
+        <v>0.8843715647726828</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7014400307961955</v>
+        <v>0.9984006652204596</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8555982731007237</v>
+        <v>0.9860736726116263</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1313415956155349</v>
+        <v>0.04868545584180778</v>
       </c>
       <c r="H15" t="n">
-        <v>1.430830212490227</v>
+        <v>1.219447327392185</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2482634512909279</v>
+        <v>0.2106212128856751</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5726215346376886</v>
+        <v>0.02289740252156377</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4104424947717048</v>
+        <v>0.1167592418883051</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2172353504365722</v>
+        <v>0.4896504534444483</v>
       </c>
       <c r="M15" t="n">
-        <v>0.3624108105665929</v>
+        <v>0.2206478095105587</v>
       </c>
       <c r="N15" t="n">
-        <v>1.003895798958895</v>
+        <v>1.008320694279765</v>
       </c>
       <c r="O15" t="n">
-        <v>0.3778393890662132</v>
+        <v>0.2300412435653559</v>
       </c>
       <c r="P15" t="n">
-        <v>294.0599074991059</v>
+        <v>96.0447498830199</v>
       </c>
       <c r="Q15" t="n">
-        <v>470.796902104995</v>
+        <v>150.8941620020889</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_10</t>
+          <t>model_6_8_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9803586802489048</v>
+        <v>0.9925352045544487</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7860282298129475</v>
+        <v>0.8172094951766885</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6893214112824252</v>
+        <v>0.8779002576119036</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7014400307961955</v>
+        <v>0.9982054337762443</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8555982731007237</v>
+        <v>0.9852039865510051</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1313415956155349</v>
+        <v>0.04991712151662451</v>
       </c>
       <c r="H16" t="n">
-        <v>1.430830212490227</v>
+        <v>1.222320947426367</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2482634512909279</v>
+        <v>0.2224089237586926</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5726215346376886</v>
+        <v>0.02569249772004965</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4104424947717048</v>
+        <v>0.1240507468405533</v>
       </c>
       <c r="L16" t="n">
-        <v>0.2172353504365722</v>
+        <v>0.4933494072216242</v>
       </c>
       <c r="M16" t="n">
-        <v>0.3624108105665929</v>
+        <v>0.2234213989675665</v>
       </c>
       <c r="N16" t="n">
-        <v>1.003895798958895</v>
+        <v>1.008531194794916</v>
       </c>
       <c r="O16" t="n">
-        <v>0.3778393890662132</v>
+        <v>0.2329329104676703</v>
       </c>
       <c r="P16" t="n">
-        <v>294.0599074991059</v>
+        <v>95.99478243702013</v>
       </c>
       <c r="Q16" t="n">
-        <v>470.796902104995</v>
+        <v>150.8441945560892</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_9</t>
+          <t>model_6_8_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9803586802489048</v>
+        <v>0.9923355343092192</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7860282298129475</v>
+        <v>0.8167751065320152</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6893214112824252</v>
+        <v>0.871470940989636</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7014400307961955</v>
+        <v>0.9980063243500208</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8555982731007237</v>
+        <v>0.9843355713959159</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1313415956155349</v>
+        <v>0.05125231736587119</v>
       </c>
       <c r="H17" t="n">
-        <v>1.430830212490227</v>
+        <v>1.225225706293472</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2482634512909279</v>
+        <v>0.2341201474066291</v>
       </c>
       <c r="J17" t="n">
-        <v>0.5726215346376886</v>
+        <v>0.02854311332373603</v>
       </c>
       <c r="K17" t="n">
-        <v>0.4104424947717048</v>
+        <v>0.1313315964374958</v>
       </c>
       <c r="L17" t="n">
-        <v>0.2172353504365722</v>
+        <v>0.4969493121904789</v>
       </c>
       <c r="M17" t="n">
-        <v>0.3624108105665929</v>
+        <v>0.226389746600572</v>
       </c>
       <c r="N17" t="n">
-        <v>1.003895798958895</v>
+        <v>1.008759389360892</v>
       </c>
       <c r="O17" t="n">
-        <v>0.3778393890662132</v>
+        <v>0.2360276268047395</v>
       </c>
       <c r="P17" t="n">
-        <v>294.0599074991059</v>
+        <v>95.94198889018165</v>
       </c>
       <c r="Q17" t="n">
-        <v>470.796902104995</v>
+        <v>150.7914010092507</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_8</t>
+          <t>model_6_8_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9803586802489048</v>
+        <v>0.9921230149248602</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7860282298129475</v>
+        <v>0.8163382669448347</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6893214112824252</v>
+        <v>0.8651004307340218</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7014400307961955</v>
+        <v>0.9978044590433951</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8555982731007237</v>
+        <v>0.983471187394042</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1313415956155349</v>
+        <v>0.05267343546764076</v>
       </c>
       <c r="H18" t="n">
-        <v>1.430830212490227</v>
+        <v>1.22814685462441</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2482634512909279</v>
+        <v>0.2457242532141692</v>
       </c>
       <c r="J18" t="n">
-        <v>0.5726215346376886</v>
+        <v>0.031433184395832</v>
       </c>
       <c r="K18" t="n">
-        <v>0.4104424947717048</v>
+        <v>0.1385786485815823</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2172353504365722</v>
+        <v>0.5004453468061311</v>
       </c>
       <c r="M18" t="n">
-        <v>0.3624108105665929</v>
+        <v>0.2295069399117176</v>
       </c>
       <c r="N18" t="n">
-        <v>1.003895798958895</v>
+        <v>1.009002268657303</v>
       </c>
       <c r="O18" t="n">
-        <v>0.3778393890662132</v>
+        <v>0.2392775254886203</v>
       </c>
       <c r="P18" t="n">
-        <v>294.0599074991059</v>
+        <v>95.88728804268797</v>
       </c>
       <c r="Q18" t="n">
-        <v>470.796902104995</v>
+        <v>150.736700161757</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_7</t>
+          <t>model_6_8_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9803586802489048</v>
+        <v>0.9919000727186582</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7860282298129475</v>
+        <v>0.8159010641163753</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6893214112824252</v>
+        <v>0.8588047708433186</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7014400307961955</v>
+        <v>0.9976007752125727</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8555982731007237</v>
+        <v>0.9826133741897588</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1313415956155349</v>
+        <v>0.05416425102706859</v>
       </c>
       <c r="H19" t="n">
-        <v>1.430830212490227</v>
+        <v>1.231070431951452</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2482634512909279</v>
+        <v>0.2571920164809537</v>
       </c>
       <c r="J19" t="n">
-        <v>0.5726215346376886</v>
+        <v>0.03434929096784951</v>
       </c>
       <c r="K19" t="n">
-        <v>0.4104424947717048</v>
+        <v>0.1457706107278625</v>
       </c>
       <c r="L19" t="n">
-        <v>0.2172353504365722</v>
+        <v>0.5038286422674075</v>
       </c>
       <c r="M19" t="n">
-        <v>0.3624108105665929</v>
+        <v>0.2327321443786152</v>
       </c>
       <c r="N19" t="n">
-        <v>1.003895798958895</v>
+        <v>1.009257059750105</v>
       </c>
       <c r="O19" t="n">
-        <v>0.3778393890662132</v>
+        <v>0.2426400335867674</v>
       </c>
       <c r="P19" t="n">
-        <v>294.0599074991059</v>
+        <v>95.83146832659651</v>
       </c>
       <c r="Q19" t="n">
-        <v>470.796902104995</v>
+        <v>150.6808804456655</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_6</t>
+          <t>model_6_8_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9803586802489048</v>
+        <v>0.9916688112423184</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7860282298129475</v>
+        <v>0.8154652515850003</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6893214112824252</v>
+        <v>0.8525962732762491</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7014400307961955</v>
+        <v>0.9973961295757583</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8555982731007237</v>
+        <v>0.9817642168636016</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1313415956155349</v>
+        <v>0.05571069758421319</v>
       </c>
       <c r="H20" t="n">
-        <v>1.430830212490227</v>
+        <v>1.233984712355489</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2482634512909279</v>
+        <v>0.2685010105463253</v>
       </c>
       <c r="J20" t="n">
-        <v>0.5726215346376886</v>
+        <v>0.03727916755176754</v>
       </c>
       <c r="K20" t="n">
-        <v>0.4104424947717048</v>
+        <v>0.1528900014244214</v>
       </c>
       <c r="L20" t="n">
-        <v>0.2172353504365722</v>
+        <v>0.5071015513129539</v>
       </c>
       <c r="M20" t="n">
-        <v>0.3624108105665929</v>
+        <v>0.2360311368955655</v>
       </c>
       <c r="N20" t="n">
-        <v>1.003895798958895</v>
+        <v>1.009521358580207</v>
       </c>
       <c r="O20" t="n">
-        <v>0.3778393890662132</v>
+        <v>0.2460794710450202</v>
       </c>
       <c r="P20" t="n">
-        <v>294.0599074991059</v>
+        <v>95.77516618664463</v>
       </c>
       <c r="Q20" t="n">
-        <v>470.796902104995</v>
+        <v>150.6245783057137</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_5</t>
+          <t>model_6_8_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9803586802489048</v>
+        <v>0.9914312514928437</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7860282298129475</v>
+        <v>0.8150324053760867</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6893214112824252</v>
+        <v>0.8464883356594567</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7014400307961955</v>
+        <v>0.9971913726733245</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8555982731007237</v>
+        <v>0.9809258616033554</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1313415956155349</v>
+        <v>0.057299260722813</v>
       </c>
       <c r="H21" t="n">
-        <v>1.430830212490227</v>
+        <v>1.236879156947567</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2482634512909279</v>
+        <v>0.279626831167782</v>
       </c>
       <c r="J21" t="n">
-        <v>0.5726215346376886</v>
+        <v>0.04021063710653025</v>
       </c>
       <c r="K21" t="n">
-        <v>0.4104424947717048</v>
+        <v>0.1599188268921571</v>
       </c>
       <c r="L21" t="n">
-        <v>0.2172353504365722</v>
+        <v>0.510256213612617</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3624108105665929</v>
+        <v>0.2393726398793584</v>
       </c>
       <c r="N21" t="n">
-        <v>1.003895798958895</v>
+        <v>1.00979285543675</v>
       </c>
       <c r="O21" t="n">
-        <v>0.3778393890662132</v>
+        <v>0.2495632287286979</v>
       </c>
       <c r="P21" t="n">
-        <v>294.0599074991059</v>
+        <v>95.71893511443061</v>
       </c>
       <c r="Q21" t="n">
-        <v>470.796902104995</v>
+        <v>150.5683472334996</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_4</t>
+          <t>model_6_8_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9803586802489048</v>
+        <v>0.9911891330547542</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7860282298129475</v>
+        <v>0.814603869077689</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6893214112824252</v>
+        <v>0.8404916522935095</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7014400307961955</v>
+        <v>0.9969872035153426</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8555982731007237</v>
+        <v>0.9801001249668063</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1313415956155349</v>
+        <v>0.05891830783317049</v>
       </c>
       <c r="H22" t="n">
-        <v>1.430830212490227</v>
+        <v>1.239744781148181</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2482634512909279</v>
+        <v>0.290549998305209</v>
       </c>
       <c r="J22" t="n">
-        <v>0.5726215346376886</v>
+        <v>0.04313369202448895</v>
       </c>
       <c r="K22" t="n">
-        <v>0.4104424947717048</v>
+        <v>0.1668418569914892</v>
       </c>
       <c r="L22" t="n">
-        <v>0.2172353504365722</v>
+        <v>0.5132904512895744</v>
       </c>
       <c r="M22" t="n">
-        <v>0.3624108105665929</v>
+        <v>0.2427309371159154</v>
       </c>
       <c r="N22" t="n">
-        <v>1.003895798958895</v>
+        <v>1.010069562223138</v>
       </c>
       <c r="O22" t="n">
-        <v>0.3778393890662132</v>
+        <v>0.2530644956312488</v>
       </c>
       <c r="P22" t="n">
-        <v>294.0599074991059</v>
+        <v>95.66320681507172</v>
       </c>
       <c r="Q22" t="n">
-        <v>470.796902104995</v>
+        <v>150.5126189341408</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_3</t>
+          <t>model_6_8_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9803586802489048</v>
+        <v>0.9909440232184297</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7860282298129475</v>
+        <v>0.814180866297422</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6893214112824252</v>
+        <v>0.8346154973841798</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7014400307961955</v>
+        <v>0.9967843052466936</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8555982731007237</v>
+        <v>0.9792885542756392</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1313415956155349</v>
+        <v>0.06055735843729937</v>
       </c>
       <c r="H23" t="n">
-        <v>1.430830212490227</v>
+        <v>1.242573402687575</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2482634512909279</v>
+        <v>0.3012536186705112</v>
       </c>
       <c r="J23" t="n">
-        <v>0.5726215346376886</v>
+        <v>0.04603855183721757</v>
       </c>
       <c r="K23" t="n">
-        <v>0.4104424947717048</v>
+        <v>0.1736461188759644</v>
       </c>
       <c r="L23" t="n">
-        <v>0.2172353504365722</v>
+        <v>0.5162090266855088</v>
       </c>
       <c r="M23" t="n">
-        <v>0.3624108105665929</v>
+        <v>0.2460840475067398</v>
       </c>
       <c r="N23" t="n">
-        <v>1.003895798958895</v>
+        <v>1.010349687750366</v>
       </c>
       <c r="O23" t="n">
-        <v>0.3778393890662132</v>
+        <v>0.256560354873306</v>
       </c>
       <c r="P23" t="n">
-        <v>294.0599074991059</v>
+        <v>95.60832857947845</v>
       </c>
       <c r="Q23" t="n">
-        <v>470.796902104995</v>
+        <v>150.4577406985475</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_6_8_2</t>
+          <t>model_6_8_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9803586802489048</v>
+        <v>0.9906973011409718</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7860282298129475</v>
+        <v>0.8137644913994317</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6893214112824252</v>
+        <v>0.8288673315198281</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7014400307961955</v>
+        <v>0.996583269460153</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8555982731007237</v>
+        <v>0.9784924775685451</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1313415956155349</v>
+        <v>0.06220719010531141</v>
       </c>
       <c r="H24" t="n">
-        <v>1.430830212490227</v>
+        <v>1.245357703547666</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2482634512909279</v>
+        <v>0.3117241025427324</v>
       </c>
       <c r="J24" t="n">
-        <v>0.5726215346376886</v>
+        <v>0.04891674681211985</v>
       </c>
       <c r="K24" t="n">
-        <v>0.4104424947717048</v>
+        <v>0.1803204781821263</v>
       </c>
       <c r="L24" t="n">
-        <v>0.2172353504365722</v>
+        <v>0.5190087583271729</v>
       </c>
       <c r="M24" t="n">
-        <v>0.3624108105665929</v>
+        <v>0.2494136926981184</v>
       </c>
       <c r="N24" t="n">
-        <v>1.003895798958895</v>
+        <v>1.010631655838889</v>
       </c>
       <c r="O24" t="n">
-        <v>0.3778393890662132</v>
+        <v>0.2600317499537972</v>
       </c>
       <c r="P24" t="n">
-        <v>294.0599074991059</v>
+        <v>95.55456937873871</v>
       </c>
       <c r="Q24" t="n">
-        <v>470.796902104995</v>
+        <v>150.4039814978077</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9803586802489048</v>
+        <v>0.9904502353553256</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7860282298129475</v>
+        <v>0.8133555690098895</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6893214112824252</v>
+        <v>0.8232546407973214</v>
       </c>
       <c r="E25" t="n">
-        <v>0.7014400307961955</v>
+        <v>0.9963846559528746</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8555982731007237</v>
+        <v>0.9777131930285486</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1313415956155349</v>
+        <v>0.06385932015156028</v>
       </c>
       <c r="H25" t="n">
-        <v>1.430830212490227</v>
+        <v>1.24809216944945</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2482634512909279</v>
+        <v>0.3219478137362853</v>
       </c>
       <c r="J25" t="n">
-        <v>0.5726215346376886</v>
+        <v>0.05176026242908024</v>
       </c>
       <c r="K25" t="n">
-        <v>0.4104424947717048</v>
+        <v>0.1868540508583816</v>
       </c>
       <c r="L25" t="n">
-        <v>0.2172353504365722</v>
+        <v>0.5216940623888688</v>
       </c>
       <c r="M25" t="n">
-        <v>0.3624108105665929</v>
+        <v>0.2527040168884545</v>
       </c>
       <c r="N25" t="n">
-        <v>1.003895798958895</v>
+        <v>1.010914016736771</v>
       </c>
       <c r="O25" t="n">
-        <v>0.3778393890662132</v>
+        <v>0.263462150056826</v>
       </c>
       <c r="P25" t="n">
-        <v>294.0599074991059</v>
+        <v>95.50214547534398</v>
       </c>
       <c r="Q25" t="n">
-        <v>470.796902104995</v>
+        <v>150.351557594413</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9803586802489048</v>
+        <v>0.9902038884436739</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7860282298129475</v>
+        <v>0.8129549182715735</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6893214112824252</v>
+        <v>0.8177824862078813</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7014400307961955</v>
+        <v>0.9961888773210902</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8555982731007237</v>
+        <v>0.9769515920227585</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1313415956155349</v>
+        <v>0.06550664308409879</v>
       </c>
       <c r="H26" t="n">
-        <v>1.430830212490227</v>
+        <v>1.250771322781396</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2482634512909279</v>
+        <v>0.3319155334797892</v>
       </c>
       <c r="J26" t="n">
-        <v>0.5726215346376886</v>
+        <v>0.05456319161841455</v>
       </c>
       <c r="K26" t="n">
-        <v>0.4104424947717048</v>
+        <v>0.1932393636244498</v>
       </c>
       <c r="L26" t="n">
-        <v>0.2172353504365722</v>
+        <v>0.5242643412819493</v>
       </c>
       <c r="M26" t="n">
-        <v>0.3624108105665929</v>
+        <v>0.2559426558510691</v>
       </c>
       <c r="N26" t="n">
-        <v>1.003895798958895</v>
+        <v>1.011195556064373</v>
       </c>
       <c r="O26" t="n">
-        <v>0.3778393890662132</v>
+        <v>0.2668386645849861</v>
       </c>
       <c r="P26" t="n">
-        <v>294.0599074991059</v>
+        <v>95.45120744070485</v>
       </c>
       <c r="Q26" t="n">
-        <v>470.796902104995</v>
+        <v>150.3006195597739</v>
       </c>
     </row>
   </sheetData>
